--- a/medicine/Psychotrope/Castle_(bière)/Castle_(bière).xlsx
+++ b/medicine/Psychotrope/Castle_(bière)/Castle_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Castle_(bi%C3%A8re)</t>
+          <t>Castle_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Castle est une bière lager sud africaine produite par South African Breweries (en). Elle est commercialisée en Afrique du Sud, ainsi qu'en Tanzanie et au Kenya par East African Breweries[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castle est une bière lager sud africaine produite par South African Breweries (en). Elle est commercialisée en Afrique du Sud, ainsi qu'en Tanzanie et au Kenya par East African Breweries.
 Le joueur de football McBeth Sibaya est apparu sur les canettes pendant la coupe d'Afrique[Laquelle ?], canettes qui sont devenues collector.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Castle_(bi%C3%A8re)</t>
+          <t>Castle_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Castle Lite : version moins alcoolisée lancée en 1994.
 Castle Lite Lime : version parfumée au citron lancée en 2014.
 Castle Milk Stout, une stout contenant du lactose.
 Castle Milk Stout Chocolate Infused : variante parfumée au chocolat.
-Castle Free, une bière sans alcool lancée en 2017[2].
+Castle Free, une bière sans alcool lancée en 2017.
 Castle Double Malt, une pure malt lancée en 2021.</t>
         </is>
       </c>
